--- a/arg/args_78.xlsx
+++ b/arg/args_78.xlsx
@@ -381,176 +381,110 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.1488014592239614</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.8511985407760387</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.5499489646890195</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.4500510353109806</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-0.1675015679310292</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.1827272603853539</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-0.1580627951120576</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-0.1474933285155958</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.1260903674029603</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.02267908832669054</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.04381839440409624</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.009792519873857972</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>-0.002734686555415749</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>-0.01346702533661234</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.01114222184273313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.01422205450198457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.003992463523744161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.0001083505524802059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.0001964752105905474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.01169559954484919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.0001081622427403943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.0008737822564524316</v>
       </c>
     </row>
   </sheetData>
